--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -121,10 +121,10 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
@@ -1492,25 +1492,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.683982683982684</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="N22">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1518,25 +1518,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L23">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="M23">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1674,25 +1674,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.6036585365853658</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L29">
         <v>198</v>
       </c>
       <c r="M29">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="N29">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="10:17">
